--- a/StructureDefinition-ext-R5-VerificationResult.primarySource.xlsx
+++ b/StructureDefinition-ext-R5-VerificationResult.primarySource.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="191">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -403,7 +403,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole)
 </t>
   </si>
   <si>
@@ -449,15 +449,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Type of the validation primary source.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-verificationresult-primary-source-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:communicationMethod</t>
   </si>
   <si>
@@ -489,12 +480,6 @@
     <t>Extension.extension:communicationMethod.value[x]</t>
   </si>
   <si>
-    <t>Method for communicating with the data source (manual; API; Push).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-verificationresult-communication-method-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:validationStatus</t>
   </si>
   <si>
@@ -526,15 +511,6 @@
     <t>Extension.extension:validationStatus.value[x]</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>Status of the validation of the target against the primary source.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-verificationresult-validation-status-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:validationDate</t>
   </si>
   <si>
@@ -601,12 +577,6 @@
     <t>Extension.extension:canPushUpdates.value[x]</t>
   </si>
   <si>
-    <t>Ability of the primary source to push updates/alerts.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-verificationresult-can-push-updates-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:pushTypeAvailable</t>
   </si>
   <si>
@@ -636,12 +606,6 @@
   </si>
   <si>
     <t>Extension.extension:pushTypeAvailable.value[x]</t>
-  </si>
-  <si>
-    <t>Type of alerts/updates the primary source can send.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-verificationresult-push-type-available-for-R4</t>
   </si>
   <si>
     <t>base64Binary
@@ -1001,8 +965,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="77.1015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2441,13 +2405,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2485,13 +2449,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2516,14 +2480,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2592,7 +2556,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2695,7 +2659,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2800,7 +2764,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2843,7 +2807,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2905,7 +2869,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>122</v>
@@ -2934,10 +2898,10 @@
         <v>136</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2964,13 +2928,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3008,13 +2972,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3039,14 +3003,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3115,7 +3079,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3218,7 +3182,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3323,7 +3287,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3366,7 +3330,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3428,7 +3392,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>122</v>
@@ -3457,10 +3421,10 @@
         <v>136</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3487,13 +3451,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3531,13 +3495,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3562,14 +3526,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3638,7 +3602,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -3741,7 +3705,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -3846,7 +3810,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -3889,7 +3853,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3951,7 +3915,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>122</v>
@@ -3977,13 +3941,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4054,13 +4018,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4085,14 +4049,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4161,7 +4125,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4264,7 +4228,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4369,7 +4333,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4412,7 +4376,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4474,7 +4438,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>122</v>
@@ -4503,10 +4467,10 @@
         <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4533,13 +4497,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -4577,13 +4541,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4608,14 +4572,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4684,7 +4648,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4787,7 +4751,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -4892,7 +4856,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -4935,7 +4899,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -4997,7 +4961,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>122</v>
@@ -5026,10 +4990,10 @@
         <v>136</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5056,13 +5020,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -5231,13 +5195,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
